--- a/ld_results_rob_adam.xlsx
+++ b/ld_results_rob_adam.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="ld_results_rob_adam" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ld_results_rob_adam!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -1924,18 +1927,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="7" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="12" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
     <col min="15" max="15" width="53.140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="19.42578125" style="2"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2062,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="2">
-        <f>SUM(Q2, T2)</f>
+        <f t="shared" ref="U2:U33" si="0">SUM(Q2, T2)</f>
         <v>2</v>
       </c>
     </row>
@@ -2125,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="2">
-        <f>SUM(Q3, T3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2188,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="2">
-        <f>SUM(Q4, T4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2251,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="2">
-        <f>SUM(Q5, T5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2314,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="2">
-        <f>SUM(Q6, T6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2377,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="2">
-        <f>SUM(Q7, T7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2437,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="2">
-        <f>SUM(Q8, T8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2503,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="2">
-        <f>SUM(Q9, T9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2566,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="2">
-        <f>SUM(Q10, T10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2626,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="2">
-        <f>SUM(Q11, T11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2689,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="U12" s="2">
-        <f>SUM(Q12, T12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2755,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="U13" s="2">
-        <f>SUM(Q13, T13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2818,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="2">
-        <f>SUM(Q14, T14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2881,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="2">
-        <f>SUM(Q15, T15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2941,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="U16" s="2">
-        <f>SUM(Q16, T16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3004,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="2">
-        <f>SUM(Q17, T17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3064,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="U18" s="2">
-        <f>SUM(Q18, T18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3127,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="U19" s="2">
-        <f>SUM(Q19, T19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3190,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="U20" s="2">
-        <f>SUM(Q20, T20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3250,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="U21" s="2">
-        <f>SUM(Q21, T21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3310,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="U22" s="2">
-        <f>SUM(Q22, T22)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3373,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="U23" s="2">
-        <f>SUM(Q23, T23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3436,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="U24" s="2">
-        <f>SUM(Q24, T24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3499,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="U25" s="2">
-        <f>SUM(Q25, T25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3562,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="U26" s="2">
-        <f>SUM(Q26, T26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3628,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="U27" s="2">
-        <f>SUM(Q27, T27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3688,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="U28" s="2">
-        <f>SUM(Q28, T28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3748,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="U29" s="2">
-        <f>SUM(Q29, T29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3811,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="U30" s="2">
-        <f>SUM(Q30, T30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3874,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="U31" s="2">
-        <f>SUM(Q31, T31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3934,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="U32" s="2">
-        <f>SUM(Q32, T32)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3997,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="U33" s="2">
-        <f>SUM(Q33, T33)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4060,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="U34" s="2">
-        <f>SUM(Q34, T34)</f>
+        <f t="shared" ref="U34:U65" si="1">SUM(Q34, T34)</f>
         <v>2</v>
       </c>
     </row>
@@ -4120,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="U35" s="2">
-        <f>SUM(Q35, T35)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4183,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="U36" s="2">
-        <f>SUM(Q36, T36)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4246,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="U37" s="2">
-        <f>SUM(Q37, T37)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4306,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="U38" s="2">
-        <f>SUM(Q38, T38)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4369,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="U39" s="2">
-        <f>SUM(Q39, T39)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4432,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="U40" s="2">
-        <f>SUM(Q40, T40)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4492,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="U41" s="2">
-        <f>SUM(Q41, T41)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4555,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="U42" s="2">
-        <f>SUM(Q42, T42)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4618,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="U43" s="2">
-        <f>SUM(Q43, T43)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4681,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="U44" s="2">
-        <f>SUM(Q44, T44)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4744,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="U45" s="2">
-        <f>SUM(Q45, T45)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4804,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="U46" s="2">
-        <f>SUM(Q46, T46)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4867,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="U47" s="2">
-        <f>SUM(Q47, T47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4930,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="U48" s="2">
-        <f>SUM(Q48, T48)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4993,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="U49" s="2">
-        <f>SUM(Q49, T49)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -5056,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="U50" s="2">
-        <f>SUM(Q50, T50)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -5110,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="U51" s="2">
-        <f>SUM(Q51, T51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5170,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="2">
-        <f>SUM(Q52, T52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5230,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="2">
-        <f>SUM(Q53, T53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5290,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="2">
-        <f>SUM(Q54, T54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5353,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="2">
-        <f>SUM(Q55, T55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5413,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="2">
-        <f>SUM(Q56, T56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5476,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="2">
-        <f>SUM(Q57, T57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5539,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="U58" s="2">
-        <f>SUM(Q58, T58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5602,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="2">
-        <f>SUM(Q59, T59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5665,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="2">
-        <f>SUM(Q60, T60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5728,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="U61" s="2">
-        <f>SUM(Q61, T61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5788,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="2">
-        <f>SUM(Q62, T62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5851,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="2">
-        <f>SUM(Q63, T63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5914,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="2">
-        <f>SUM(Q64, T64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5974,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="U65" s="2">
-        <f>SUM(Q65, T65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6034,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="U66" s="2">
-        <f>SUM(Q66, T66)</f>
+        <f t="shared" ref="U66:U97" si="2">SUM(Q66, T66)</f>
         <v>1</v>
       </c>
     </row>
@@ -6094,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="2">
-        <f>SUM(Q67, T67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6157,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="2">
-        <f>SUM(Q68, T68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6220,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="2">
-        <f>SUM(Q69, T69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6283,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="2">
-        <f>SUM(Q70, T70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6346,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="2">
-        <f>SUM(Q71, T71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6409,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="2">
-        <f>SUM(Q72, T72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6472,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="2">
-        <f>SUM(Q73, T73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6538,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="2">
-        <f>SUM(Q74, T74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6601,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="2">
-        <f>SUM(Q75, T75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6664,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="2">
-        <f>SUM(Q76, T76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6727,7 +6741,7 @@
         <v>-1</v>
       </c>
       <c r="U77" s="2">
-        <f>SUM(Q77, T77)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
@@ -6790,7 +6804,7 @@
         <v>-1</v>
       </c>
       <c r="U78" s="2">
-        <f>SUM(Q78, T78)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
@@ -6853,7 +6867,7 @@
         <v>-1</v>
       </c>
       <c r="U79" s="2">
-        <f>SUM(Q79, T79)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
@@ -6916,7 +6930,7 @@
         <v>-1</v>
       </c>
       <c r="U80" s="2">
-        <f>SUM(Q80, T80)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
@@ -6979,7 +6993,7 @@
         <v>-1</v>
       </c>
       <c r="U81" s="2">
-        <f>SUM(Q81, T81)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -7042,7 +7056,7 @@
         <v>-1</v>
       </c>
       <c r="U82" s="2">
-        <f>SUM(Q82, T82)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -7105,7 +7119,7 @@
         <v>-1</v>
       </c>
       <c r="U83" s="2">
-        <f>SUM(Q83, T83)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -7168,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="U84" s="2">
-        <f>SUM(Q84, T84)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -7234,7 +7248,7 @@
         <v>-1</v>
       </c>
       <c r="U85" s="2">
-        <f>SUM(Q85, T85)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -7297,7 +7311,7 @@
         <v>-1</v>
       </c>
       <c r="U86" s="2">
-        <f>SUM(Q86, T86)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -7360,7 +7374,7 @@
         <v>-1</v>
       </c>
       <c r="U87" s="2">
-        <f>SUM(Q87, T87)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -7423,7 +7437,7 @@
         <v>-1</v>
       </c>
       <c r="U88" s="2">
-        <f>SUM(Q88, T88)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -7486,7 +7500,7 @@
         <v>-1</v>
       </c>
       <c r="U89" s="2">
-        <f>SUM(Q89, T89)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -7494,7 +7508,8 @@
   <sortState ref="A2:U89">
     <sortCondition descending="1" ref="U2:U89"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>